--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cd48-Cd2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cd48-Cd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>Cd2</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,60 +531,60 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>109.363461904066</v>
+        <v>109.3871713333333</v>
       </c>
       <c r="H2">
-        <v>109.363461904066</v>
+        <v>328.161514</v>
       </c>
       <c r="I2">
-        <v>0.495557831963953</v>
+        <v>0.4931202135986874</v>
       </c>
       <c r="J2">
-        <v>0.495557831963953</v>
+        <v>0.4931202135986874</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.539539969675966</v>
+        <v>0.1079395</v>
       </c>
       <c r="N2">
-        <v>0.539539969675966</v>
+        <v>0.215879</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.08243590548110172</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.0565100904799113</v>
       </c>
       <c r="Q2">
-        <v>59.00595891937843</v>
+        <v>11.80719658013433</v>
       </c>
       <c r="R2">
-        <v>59.00595891937843</v>
+        <v>70.843179480806</v>
       </c>
       <c r="S2">
-        <v>0.495557831963953</v>
+        <v>0.04065081131904208</v>
       </c>
       <c r="T2">
-        <v>0.495557831963953</v>
+        <v>0.02786626788793501</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -587,60 +593,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>111.059016259952</v>
+        <v>109.3871713333333</v>
       </c>
       <c r="H3">
-        <v>111.059016259952</v>
+        <v>328.161514</v>
       </c>
       <c r="I3">
-        <v>0.5032408846577034</v>
+        <v>0.4931202135986874</v>
       </c>
       <c r="J3">
-        <v>0.5032408846577034</v>
+        <v>0.4931202135986874</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.539539969675966</v>
+        <v>0.022386</v>
       </c>
       <c r="N3">
-        <v>0.539539969675966</v>
+        <v>0.067158</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.01709670862010611</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.01757977689562154</v>
       </c>
       <c r="Q3">
-        <v>59.92077826513712</v>
+        <v>2.448741217468</v>
       </c>
       <c r="R3">
-        <v>59.92077826513712</v>
+        <v>22.038670957212</v>
       </c>
       <c r="S3">
-        <v>0.5032408846577034</v>
+        <v>0.008430732606581243</v>
       </c>
       <c r="T3">
-        <v>0.5032408846577034</v>
+        <v>0.008668943337786165</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +655,613 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>109.3871713333333</v>
+      </c>
+      <c r="H4">
+        <v>328.161514</v>
+      </c>
+      <c r="I4">
+        <v>0.4931202135986874</v>
+      </c>
+      <c r="J4">
+        <v>0.4931202135986874</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.5495453333333334</v>
+      </c>
+      <c r="N4">
+        <v>1.648636</v>
+      </c>
+      <c r="O4">
+        <v>0.4197005466603719</v>
+      </c>
+      <c r="P4">
+        <v>0.4315592045934948</v>
+      </c>
+      <c r="Q4">
+        <v>60.11320953276713</v>
+      </c>
+      <c r="R4">
+        <v>541.0188857949041</v>
+      </c>
+      <c r="S4">
+        <v>0.2069628232166485</v>
+      </c>
+      <c r="T4">
+        <v>0.2128105671496238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.265108329461342</v>
-      </c>
-      <c r="H4">
-        <v>0.265108329461342</v>
-      </c>
-      <c r="I4">
-        <v>0.001201283378343417</v>
-      </c>
-      <c r="J4">
-        <v>0.001201283378343417</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.539539969675966</v>
-      </c>
-      <c r="N4">
-        <v>0.539539969675966</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>0.1430365400384185</v>
-      </c>
-      <c r="R4">
-        <v>0.1430365400384185</v>
-      </c>
-      <c r="S4">
-        <v>0.001201283378343417</v>
-      </c>
-      <c r="T4">
-        <v>0.001201283378343417</v>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>109.3871713333333</v>
+      </c>
+      <c r="H5">
+        <v>328.161514</v>
+      </c>
+      <c r="I5">
+        <v>0.4931202135986874</v>
+      </c>
+      <c r="J5">
+        <v>0.4931202135986874</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.629504</v>
+      </c>
+      <c r="N5">
+        <v>1.888512</v>
+      </c>
+      <c r="O5">
+        <v>0.4807668392384202</v>
+      </c>
+      <c r="P5">
+        <v>0.4943509280309722</v>
+      </c>
+      <c r="Q5">
+        <v>68.85966190301866</v>
+      </c>
+      <c r="R5">
+        <v>619.736957127168</v>
+      </c>
+      <c r="S5">
+        <v>0.2370758464564156</v>
+      </c>
+      <c r="T5">
+        <v>0.2437744352233424</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>111.6470206666667</v>
+      </c>
+      <c r="H6">
+        <v>334.941062</v>
+      </c>
+      <c r="I6">
+        <v>0.5033076731734336</v>
+      </c>
+      <c r="J6">
+        <v>0.5033076731734337</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.5</v>
+      </c>
+      <c r="M6">
+        <v>0.1079395</v>
+      </c>
+      <c r="N6">
+        <v>0.215879</v>
+      </c>
+      <c r="O6">
+        <v>0.08243590548110172</v>
+      </c>
+      <c r="P6">
+        <v>0.0565100904799113</v>
+      </c>
+      <c r="Q6">
+        <v>12.05112358724967</v>
+      </c>
+      <c r="R6">
+        <v>72.30674152349799</v>
+      </c>
+      <c r="S6">
+        <v>0.04149062377363841</v>
+      </c>
+      <c r="T6">
+        <v>0.02844196215026437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>111.6470206666667</v>
+      </c>
+      <c r="H7">
+        <v>334.941062</v>
+      </c>
+      <c r="I7">
+        <v>0.5033076731734336</v>
+      </c>
+      <c r="J7">
+        <v>0.5033076731734337</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.022386</v>
+      </c>
+      <c r="N7">
+        <v>0.067158</v>
+      </c>
+      <c r="O7">
+        <v>0.01709670862010611</v>
+      </c>
+      <c r="P7">
+        <v>0.01757977689562154</v>
+      </c>
+      <c r="Q7">
+        <v>2.499330204644</v>
+      </c>
+      <c r="R7">
+        <v>22.493971841796</v>
+      </c>
+      <c r="S7">
+        <v>0.00860490463450979</v>
+      </c>
+      <c r="T7">
+        <v>0.008848036604243369</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>111.6470206666667</v>
+      </c>
+      <c r="H8">
+        <v>334.941062</v>
+      </c>
+      <c r="I8">
+        <v>0.5033076731734336</v>
+      </c>
+      <c r="J8">
+        <v>0.5033076731734337</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.5495453333333334</v>
+      </c>
+      <c r="N8">
+        <v>1.648636</v>
+      </c>
+      <c r="O8">
+        <v>0.4197005466603719</v>
+      </c>
+      <c r="P8">
+        <v>0.4315592045934948</v>
+      </c>
+      <c r="Q8">
+        <v>61.3550991879369</v>
+      </c>
+      <c r="R8">
+        <v>552.1958926914321</v>
+      </c>
+      <c r="S8">
+        <v>0.2112385055692499</v>
+      </c>
+      <c r="T8">
+        <v>0.2172070591005297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>111.6470206666667</v>
+      </c>
+      <c r="H9">
+        <v>334.941062</v>
+      </c>
+      <c r="I9">
+        <v>0.5033076731734336</v>
+      </c>
+      <c r="J9">
+        <v>0.5033076731734337</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.629504</v>
+      </c>
+      <c r="N9">
+        <v>1.888512</v>
+      </c>
+      <c r="O9">
+        <v>0.4807668392384202</v>
+      </c>
+      <c r="P9">
+        <v>0.4943509280309722</v>
+      </c>
+      <c r="Q9">
+        <v>70.28224609774932</v>
+      </c>
+      <c r="R9">
+        <v>632.540214879744</v>
+      </c>
+      <c r="S9">
+        <v>0.2419736391960355</v>
+      </c>
+      <c r="T9">
+        <v>0.2488106153183962</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.7923896666666667</v>
+      </c>
+      <c r="H10">
+        <v>2.377169</v>
+      </c>
+      <c r="I10">
+        <v>0.003572113227878934</v>
+      </c>
+      <c r="J10">
+        <v>0.003572113227878934</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.5</v>
+      </c>
+      <c r="M10">
+        <v>0.1079395</v>
+      </c>
+      <c r="N10">
+        <v>0.215879</v>
+      </c>
+      <c r="O10">
+        <v>0.08243590548110172</v>
+      </c>
+      <c r="P10">
+        <v>0.0565100904799113</v>
+      </c>
+      <c r="Q10">
+        <v>0.08553014442516665</v>
+      </c>
+      <c r="R10">
+        <v>0.5131808665509999</v>
+      </c>
+      <c r="S10">
+        <v>0.0002944703884212209</v>
+      </c>
+      <c r="T10">
+        <v>0.0002018604417119266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.7923896666666667</v>
+      </c>
+      <c r="H11">
+        <v>2.377169</v>
+      </c>
+      <c r="I11">
+        <v>0.003572113227878934</v>
+      </c>
+      <c r="J11">
+        <v>0.003572113227878934</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.022386</v>
+      </c>
+      <c r="N11">
+        <v>0.067158</v>
+      </c>
+      <c r="O11">
+        <v>0.01709670862010611</v>
+      </c>
+      <c r="P11">
+        <v>0.01757977689562154</v>
+      </c>
+      <c r="Q11">
+        <v>0.017738435078</v>
+      </c>
+      <c r="R11">
+        <v>0.159645915702</v>
+      </c>
+      <c r="S11">
+        <v>6.107137901507281E-05</v>
+      </c>
+      <c r="T11">
+        <v>6.279695359201018E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.7923896666666667</v>
+      </c>
+      <c r="H12">
+        <v>2.377169</v>
+      </c>
+      <c r="I12">
+        <v>0.003572113227878934</v>
+      </c>
+      <c r="J12">
+        <v>0.003572113227878934</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.5495453333333334</v>
+      </c>
+      <c r="N12">
+        <v>1.648636</v>
+      </c>
+      <c r="O12">
+        <v>0.4197005466603719</v>
+      </c>
+      <c r="P12">
+        <v>0.4315592045934948</v>
+      </c>
+      <c r="Q12">
+        <v>0.4354540434982223</v>
+      </c>
+      <c r="R12">
+        <v>3.919086391484</v>
+      </c>
+      <c r="S12">
+        <v>0.001499217874473534</v>
+      </c>
+      <c r="T12">
+        <v>0.001541578343341334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.7923896666666667</v>
+      </c>
+      <c r="H13">
+        <v>2.377169</v>
+      </c>
+      <c r="I13">
+        <v>0.003572113227878934</v>
+      </c>
+      <c r="J13">
+        <v>0.003572113227878934</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.629504</v>
+      </c>
+      <c r="N13">
+        <v>1.888512</v>
+      </c>
+      <c r="O13">
+        <v>0.4807668392384202</v>
+      </c>
+      <c r="P13">
+        <v>0.4943509280309722</v>
+      </c>
+      <c r="Q13">
+        <v>0.4988124647253333</v>
+      </c>
+      <c r="R13">
+        <v>4.489312182528</v>
+      </c>
+      <c r="S13">
+        <v>0.001717353585969106</v>
+      </c>
+      <c r="T13">
+        <v>0.001765877489233663</v>
       </c>
     </row>
   </sheetData>
